--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-spring2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7B5A17-50E4-4A4D-83DD-497868E7874E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8ADCDD-E57E-3347-9ACD-CBAEF299251B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16500" yWindow="1440" windowWidth="30240" windowHeight="26620" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="79">
   <si>
     <t>week_start</t>
   </si>
@@ -255,6 +255,24 @@
   </si>
   <si>
     <t>Final Exam 1pm Section</t>
+  </si>
+  <si>
+    <t>fall 2025</t>
+  </si>
+  <si>
+    <t>fall 2026</t>
+  </si>
+  <si>
+    <t>Operators and Expressions, functions</t>
+  </si>
+  <si>
+    <t>Functions, decomposition</t>
+  </si>
+  <si>
+    <t>Review, Final Exam</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -320,13 +338,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD2179-9860-BE4A-AB2A-CF760AB84B2E}">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2079,6 +2098,318 @@
         <v>6</v>
       </c>
     </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1">
+        <v>45894</v>
+      </c>
+      <c r="H83" t="s">
+        <v>45</v>
+      </c>
+      <c r="I83" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" s="1">
+        <v>45901</v>
+      </c>
+      <c r="E84" s="5">
+        <v>45901</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>73</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85" s="1">
+        <v>45908</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>73</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86" s="1">
+        <v>45915</v>
+      </c>
+      <c r="H86" t="s">
+        <v>48</v>
+      </c>
+      <c r="I86" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87" s="1">
+        <v>45922</v>
+      </c>
+      <c r="H87" t="s">
+        <v>49</v>
+      </c>
+      <c r="I87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>73</v>
+      </c>
+      <c r="B88">
+        <v>6</v>
+      </c>
+      <c r="C88" s="1">
+        <v>45929</v>
+      </c>
+      <c r="H88" t="s">
+        <v>50</v>
+      </c>
+      <c r="I88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89">
+        <v>7</v>
+      </c>
+      <c r="C89" s="1">
+        <v>45936</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89" s="1">
+        <v>45937</v>
+      </c>
+      <c r="H89" t="s">
+        <v>51</v>
+      </c>
+      <c r="I89" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90">
+        <v>8</v>
+      </c>
+      <c r="C90" s="1">
+        <v>45943</v>
+      </c>
+      <c r="H90" t="s">
+        <v>52</v>
+      </c>
+      <c r="I90" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91">
+        <v>9</v>
+      </c>
+      <c r="C91" s="1">
+        <v>45950</v>
+      </c>
+      <c r="H91" t="s">
+        <v>53</v>
+      </c>
+      <c r="I91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92" s="1">
+        <v>45957</v>
+      </c>
+      <c r="H92" t="s">
+        <v>54</v>
+      </c>
+      <c r="I92" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>73</v>
+      </c>
+      <c r="B93">
+        <v>11</v>
+      </c>
+      <c r="C93" s="1">
+        <v>45964</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="1">
+        <v>45965</v>
+      </c>
+      <c r="H93" t="s">
+        <v>55</v>
+      </c>
+      <c r="I93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94">
+        <v>12</v>
+      </c>
+      <c r="C94" s="1">
+        <v>45971</v>
+      </c>
+      <c r="E94" s="3">
+        <v>45972</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s">
+        <v>56</v>
+      </c>
+      <c r="I94" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>73</v>
+      </c>
+      <c r="B95">
+        <v>13</v>
+      </c>
+      <c r="C95" s="1">
+        <v>45978</v>
+      </c>
+      <c r="H95" t="s">
+        <v>57</v>
+      </c>
+      <c r="I95" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>73</v>
+      </c>
+      <c r="B96">
+        <v>14</v>
+      </c>
+      <c r="C96" s="1">
+        <v>45985</v>
+      </c>
+      <c r="E96" s="3">
+        <v>45988</v>
+      </c>
+      <c r="G96" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" t="s">
+        <v>58</v>
+      </c>
+      <c r="I96" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>73</v>
+      </c>
+      <c r="B97">
+        <v>15</v>
+      </c>
+      <c r="C97" s="1">
+        <v>45992</v>
+      </c>
+      <c r="H97" t="s">
+        <v>59</v>
+      </c>
+      <c r="I97" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>74</v>
+      </c>
+      <c r="B98">
+        <v>16</v>
+      </c>
+      <c r="C98" s="1">
+        <v>45999</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="1">
+        <v>46001</v>
+      </c>
+      <c r="F98" t="s">
+        <v>78</v>
+      </c>
+      <c r="H98" t="s">
+        <v>65</v>
+      </c>
+      <c r="I98" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8ADCDD-E57E-3347-9ACD-CBAEF299251B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E2AEC0-23DF-4344-BF8E-6E0B8813C5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16500" yWindow="1440" windowWidth="30240" windowHeight="26620" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
+    <workbookView xWindow="4920" yWindow="9100" windowWidth="30240" windowHeight="21100" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="77">
   <si>
     <t>week_start</t>
   </si>
@@ -260,9 +260,6 @@
     <t>fall 2025</t>
   </si>
   <si>
-    <t>fall 2026</t>
-  </si>
-  <si>
     <t>Operators and Expressions, functions</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
   </si>
   <si>
     <t>Review, Final Exam</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -662,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD2179-9860-BE4A-AB2A-CF760AB84B2E}">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2136,7 +2130,7 @@
         <v>46</v>
       </c>
       <c r="I84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -2153,7 +2147,7 @@
         <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -2386,7 +2380,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B98">
         <v>16</v>
@@ -2398,16 +2392,16 @@
         <v>6</v>
       </c>
       <c r="E98" s="1">
-        <v>46001</v>
+        <v>46003</v>
       </c>
       <c r="F98" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="H98" t="s">
         <v>65</v>
       </c>
       <c r="I98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E2AEC0-23DF-4344-BF8E-6E0B8813C5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBFA010-A7AC-3C49-B924-1B998BE7866B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="9100" windowWidth="30240" windowHeight="21100" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
+    <workbookView xWindow="20080" yWindow="4360" windowWidth="30240" windowHeight="21100" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="80">
   <si>
     <t>week_start</t>
   </si>
@@ -267,6 +267,15 @@
   </si>
   <si>
     <t>Review, Final Exam</t>
+  </si>
+  <si>
+    <t>spring 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 9-13, 2026 </t>
+  </si>
+  <si>
+    <t>3:30pm - 5:30pm</t>
   </si>
 </sst>
 </file>
@@ -654,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD2179-9860-BE4A-AB2A-CF760AB84B2E}">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2404,9 +2413,332 @@
         <v>76</v>
       </c>
     </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>77</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>46034</v>
+      </c>
+      <c r="H99" t="s">
+        <v>45</v>
+      </c>
+      <c r="I99" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>77</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" s="1">
+        <v>46041</v>
+      </c>
+      <c r="E100" s="1">
+        <v>46041</v>
+      </c>
+      <c r="G100" t="s">
+        <v>32</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101" s="1">
+        <v>46048</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102" s="1">
+        <v>46055</v>
+      </c>
+      <c r="H102" t="s">
+        <v>48</v>
+      </c>
+      <c r="I102" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103" s="1">
+        <v>46062</v>
+      </c>
+      <c r="H103" t="s">
+        <v>49</v>
+      </c>
+      <c r="I103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>77</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104" s="1">
+        <v>46069</v>
+      </c>
+      <c r="H104" t="s">
+        <v>50</v>
+      </c>
+      <c r="I104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105">
+        <v>7</v>
+      </c>
+      <c r="C105" s="1">
+        <v>46076</v>
+      </c>
+      <c r="D105" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" s="1">
+        <v>46077</v>
+      </c>
+      <c r="H105" t="s">
+        <v>51</v>
+      </c>
+      <c r="I105" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106" s="1">
+        <v>46083</v>
+      </c>
+      <c r="H106" t="s">
+        <v>52</v>
+      </c>
+      <c r="I106" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>77</v>
+      </c>
+      <c r="B107" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="1">
+        <v>46090</v>
+      </c>
+      <c r="E107" s="3">
+        <v>45725</v>
+      </c>
+      <c r="G107" t="s">
+        <v>78</v>
+      </c>
+      <c r="H107" t="s">
+        <v>69</v>
+      </c>
+      <c r="I107" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>77</v>
+      </c>
+      <c r="B108">
+        <v>9</v>
+      </c>
+      <c r="C108" s="1">
+        <v>46097</v>
+      </c>
+      <c r="H108" t="s">
+        <v>53</v>
+      </c>
+      <c r="I108" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B109">
+        <v>10</v>
+      </c>
+      <c r="C109" s="1">
+        <v>46104</v>
+      </c>
+      <c r="H109" t="s">
+        <v>54</v>
+      </c>
+      <c r="I109" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>77</v>
+      </c>
+      <c r="B110">
+        <v>11</v>
+      </c>
+      <c r="C110" s="1">
+        <v>46111</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E110" s="1">
+        <v>46112</v>
+      </c>
+      <c r="H110" t="s">
+        <v>55</v>
+      </c>
+      <c r="I110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>77</v>
+      </c>
+      <c r="B111">
+        <v>12</v>
+      </c>
+      <c r="C111" s="1">
+        <v>46118</v>
+      </c>
+      <c r="H111" t="s">
+        <v>56</v>
+      </c>
+      <c r="I111" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>77</v>
+      </c>
+      <c r="B112">
+        <v>13</v>
+      </c>
+      <c r="C112" s="1">
+        <v>46125</v>
+      </c>
+      <c r="H112" t="s">
+        <v>57</v>
+      </c>
+      <c r="I112" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>77</v>
+      </c>
+      <c r="B113">
+        <v>14</v>
+      </c>
+      <c r="C113" s="1">
+        <v>46132</v>
+      </c>
+      <c r="H113" t="s">
+        <v>58</v>
+      </c>
+      <c r="I113" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>77</v>
+      </c>
+      <c r="B114">
+        <v>15</v>
+      </c>
+      <c r="C114" s="1">
+        <v>46139</v>
+      </c>
+      <c r="H114" t="s">
+        <v>59</v>
+      </c>
+      <c r="I114" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>77</v>
+      </c>
+      <c r="B115">
+        <v>16</v>
+      </c>
+      <c r="C115" s="1">
+        <v>46146</v>
+      </c>
+      <c r="D115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="1">
+        <v>46150</v>
+      </c>
+      <c r="F115" t="s">
+        <v>79</v>
+      </c>
+      <c r="H115" t="s">
+        <v>65</v>
+      </c>
+      <c r="I115" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
